--- a/data/trans_bre/P69_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Habitat-trans_bre.xlsx
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,11</t>
+          <t>0,0; 19,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,19</t>
+          <t>0,0; 27,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,63</t>
+          <t>0,0; 23,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,26</t>
+          <t>0,0; 37,82</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,08</t>
+          <t>0,0; 8,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,0</t>
+          <t>-1,86; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,63</t>
+          <t>0,0; 8,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,0</t>
+          <t>-1,86; 0,0</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,69</t>
+          <t>0,0; 3,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -878,17 +878,17 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,58</t>
+          <t>0,0; 7,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -0,41</t>
+          <t>-5,23; -0,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 3,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,04</t>
+          <t>0,0; 7,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -0,41</t>
+          <t>-5,23; -0,41</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,38</t>
+          <t>0,0; 4,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,17 +978,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,14</t>
+          <t>0,0; 5,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 9,32</t>
+          <t>-1,86; 8,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>0,0; 6,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 10,25</t>
+          <t>-1,86; 9,53</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,2</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1078,17 +1078,17 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 2,07</t>
+          <t>-7,17; 2,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,23</t>
+          <t>-1,49; 3,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,31</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 2,11</t>
+          <t>-7,26; 2,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,35</t>
+          <t>-1,49; 3,97</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,87</t>
+          <t>0,22; 2,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1178,17 +1178,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,22</t>
+          <t>-0,96; 1,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,06</t>
+          <t>-1,44; 1,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,9</t>
+          <t>0,22; 2,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,28</t>
+          <t>-0,96; 2,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,07</t>
+          <t>-1,44; 1,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P69_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,02</t>
+          <t>0,0; 18,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,49</t>
+          <t>0,0; 23,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,19</t>
+          <t>0,0; 7,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,92</t>
+          <t>0,0; 7,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,68</t>
+          <t>0,0; 3,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,28</t>
+          <t>0,0; 6,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,83</t>
+          <t>0,0; 4,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,85</t>
+          <t>0,0; 7,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,44</t>
+          <t>0,0; 5,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,75</t>
+          <t>0,0; 4,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,65</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,11</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 2,09</t>
+          <t>-6,89; 2,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,27</t>
+          <t>0,0; 3,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 2,13</t>
+          <t>-6,9; 2,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,13</t>
+          <t>0,21; 2,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,98</t>
+          <t>-0,78; 1,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,17</t>
+          <t>0,21; 2,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,02</t>
+          <t>-0,79; 1,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P69_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,88</t>
+          <t>0,0; 19,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,44</t>
+          <t>0,0; 31,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,27</t>
+          <t>0,0; 23,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,82</t>
+          <t>0,0; 45,26</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,29</t>
+          <t>0,0; 7,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,0</t>
+          <t>-2,13; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,87</t>
+          <t>0,0; 7,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,0</t>
+          <t>-2,13; 0,0</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,97</t>
+          <t>0,0; 3,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -878,17 +878,17 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,55</t>
+          <t>0,0; 6,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -0,41</t>
+          <t>-5,55; -0,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,14</t>
+          <t>0,0; 3,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,01</t>
+          <t>0,0; 7,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -0,41</t>
+          <t>-5,55; -0,41</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,05</t>
+          <t>0,0; 4,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,17 +978,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,36</t>
+          <t>0,0; 4,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 8,66</t>
+          <t>-1,98; 9,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,32</t>
+          <t>0,0; 4,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,56</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 9,53</t>
+          <t>-1,98; 10,25</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1078,17 +1078,17 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 2,09</t>
+          <t>-6,75; 2,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,82</t>
+          <t>-1,53; 3,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,28</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 2,13</t>
+          <t>-6,77; 2,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,97</t>
+          <t>-1,53; 3,35</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,02</t>
+          <t>0,21; 1,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,95</t>
+          <t>-0,96; 2,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,18</t>
+          <t>-1,51; 1,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,06</t>
+          <t>0,21; 1,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,99</t>
+          <t>-0,97; 2,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,19</t>
+          <t>-1,51; 1,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P69_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 7,69</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,32</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 19,11</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 5,7</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,33</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,74</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 31,19</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 23,63</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,26</t>
+          <t>-0,57; 6,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -730,17 +730,17 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-2,05%</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,08</t>
+          <t>0,0; 3,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,39 +778,39 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 6,58</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-5,73; -0,42</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,84</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 0,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,63</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,0</t>
+          <t>-5,73; -0,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -830,17 +830,17 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,97%</t>
+          <t>1,03%</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,69</t>
+          <t>0,0; 4,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -878,17 +878,17 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,58</t>
+          <t>0,0; 4,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -0,41</t>
+          <t>-1,52; 8,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 4,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,19 +898,19 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,04</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -0,41</t>
+          <t>-1,52; 8,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -930,17 +930,17 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -950,12 +950,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,38</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,17 +978,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,14</t>
+          <t>-6,75; 2,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 9,32</t>
+          <t>-1,4; 3,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,19 +998,19 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>-6,77; 2,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 10,25</t>
+          <t>-1,4; 3,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,65%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>-0,23%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,2</t>
+          <t>0,21; 1,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 2,07</t>
+          <t>-0,96; 2,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,23</t>
+          <t>-1,45; 1,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,31</t>
+          <t>0,21; 1,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 2,11</t>
+          <t>-0,97; 2,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,35</t>
+          <t>-1,46; 1,04</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-0,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 1,87</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,24</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 2,22</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 1,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 1,9</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 2,28</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 1,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P69_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Habitat-trans_bre.xlsx
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,69</t>
+          <t>0,0; 6,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,32</t>
+          <t>0,0; 4,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,7</t>
+          <t>-0,32; 5,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,33</t>
+          <t>0,0; 6,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,74</t>
+          <t>0,0; 4,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,05</t>
+          <t>-0,32; 5,34</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,69</t>
+          <t>0,0; 3,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,58</t>
+          <t>0,0; 7,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -0,42</t>
+          <t>-6,03; -0,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 3,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,04</t>
+          <t>0,0; 7,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -0,42</t>
+          <t>-6,03; -0,43</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,38</t>
+          <t>0,0; 4,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -878,17 +878,17 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,14</t>
+          <t>0,0; 4,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 8,24</t>
+          <t>-1,51; 8,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 8,99</t>
+          <t>-1,51; 8,95</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,2</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,17 +978,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 2,07</t>
+          <t>-6,78; 2,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,32</t>
+          <t>-1,05; 4,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,31</t>
+          <t>0,0; 3,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 2,11</t>
+          <t>-6,79; 2,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,45</t>
+          <t>-1,07; 4,34</t>
         </is>
       </c>
     </row>
@@ -1068,27 +1068,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,87</t>
+          <t>0,21; 2,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,22</t>
+          <t>-1,03; 1,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,02</t>
+          <t>-1,52; 1,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,9</t>
+          <t>0,21; 2,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,28</t>
+          <t>-1,03; 2,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,04</t>
+          <t>-1,53; 1,08</t>
         </is>
       </c>
     </row>
